--- a/Datasets/Other datasets/baselines.xlsx
+++ b/Datasets/Other datasets/baselines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZMarmarelis/Documents/GitHub/Nature_Energy_Crisis/Datasets/Other datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1AC15D-0A51-7549-A951-40C16F6F606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0495BDEF-5F6D-B94C-B40A-5D5DAAE65EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52420" yWindow="5340" windowWidth="34560" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="5340" windowWidth="34560" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,18 +149,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,7 +172,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,16 +490,17 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.83203125" style="2"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -563,7 +558,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -621,7 +616,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -650,7 +645,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -708,7 +703,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -737,7 +732,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -766,7 +761,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -795,7 +790,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -824,7 +819,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -882,7 +877,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -911,7 +906,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -969,7 +964,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -998,7 +993,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1027,7 +1022,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1056,7 +1051,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1114,7 +1109,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1172,7 +1167,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1201,7 +1196,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
